--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.646265029907227</v>
+        <v>4.630361557006836</v>
       </c>
       <c r="C2" t="n">
-        <v>4.041818141937256</v>
+        <v>3.746969699859619</v>
       </c>
       <c r="D2" t="n">
-        <v>3.219070672988892</v>
+        <v>3.15716028213501</v>
       </c>
       <c r="E2" t="n">
-        <v>4.574505805969238</v>
+        <v>4.215335845947266</v>
       </c>
       <c r="F2" t="n">
-        <v>4.85317325592041</v>
+        <v>3.781923055648804</v>
       </c>
       <c r="G2" t="n">
-        <v>4.521858692169189</v>
+        <v>3.997435808181763</v>
       </c>
       <c r="H2" t="n">
-        <v>3.312285661697388</v>
+        <v>3.090571403503418</v>
       </c>
       <c r="I2" t="n">
-        <v>3.461547374725342</v>
+        <v>3.228809595108032</v>
       </c>
       <c r="J2" t="n">
-        <v>4.299008846282959</v>
+        <v>3.890583038330078</v>
       </c>
       <c r="K2" t="n">
-        <v>4.086507320404053</v>
+        <v>3.589176177978516</v>
       </c>
       <c r="L2" t="n">
-        <v>10.78026485443115</v>
+        <v>10.30936527252197</v>
       </c>
       <c r="M2" t="n">
-        <v>7.009716510772705</v>
+        <v>6.758226871490479</v>
       </c>
       <c r="N2" t="n">
-        <v>8.47281551361084</v>
+        <v>4.642427444458008</v>
       </c>
       <c r="O2" t="n">
-        <v>3.363043308258057</v>
+        <v>4.732282638549805</v>
       </c>
       <c r="P2" t="n">
-        <v>6.393033504486084</v>
+        <v>3.64415717124939</v>
       </c>
       <c r="Q2" t="n">
-        <v>26.05350875854492</v>
+        <v>23.97982406616211</v>
       </c>
       <c r="R2" t="n">
-        <v>3.154647827148438</v>
+        <v>3.21711254119873</v>
       </c>
       <c r="S2" t="n">
-        <v>5.073170185089111</v>
+        <v>4.57954216003418</v>
       </c>
       <c r="T2" t="n">
-        <v>4.765735626220703</v>
+        <v>3.983235120773315</v>
       </c>
       <c r="U2" t="n">
-        <v>4.852912902832031</v>
+        <v>4.636116504669189</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9637249514281031</v>
+        <v>0.9375257527971842</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9063116004972747</v>
+        <v>0.9282262803930225</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8482930309903807</v>
+        <v>0.8124107099338571</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8631492257118225</v>
+        <v>0.8363621790889695</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9192265822337224</v>
+        <v>0.921054394199298</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9546528974404702</v>
+        <v>0.9018139758935342</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8944610331739699</v>
+        <v>0.8786639894757952</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8758600318715686</v>
+        <v>0.7960508476410594</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9111333913427748</v>
+        <v>0.8981589949513316</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9026017958878293</v>
+        <v>0.8644619458393367</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9729570484665967</v>
+        <v>0.9629093181519282</v>
       </c>
       <c r="M3" t="n">
-        <v>0.9164034660826338</v>
+        <v>0.8954448467450784</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9724412323201744</v>
+        <v>0.937756170346899</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7342748188454172</v>
+        <v>0.8041562713358713</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8836258646477474</v>
+        <v>0.858371581589238</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9938198599899024</v>
+        <v>0.9682535780103583</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8610056600940059</v>
+        <v>0.8479368002481864</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9708697369285658</v>
+        <v>0.9594830545335035</v>
       </c>
       <c r="T3" t="n">
-        <v>0.918583086308311</v>
+        <v>0.9354450518594069</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9502244898416463</v>
+        <v>0.9040263347255374</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
@@ -542,64 +542,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.630361557006836</v>
+        <v>4.627714157104492</v>
       </c>
       <c r="C2" t="n">
-        <v>3.746969699859619</v>
+        <v>3.634689807891846</v>
       </c>
       <c r="D2" t="n">
-        <v>3.15716028213501</v>
+        <v>3.828574419021606</v>
       </c>
       <c r="E2" t="n">
-        <v>4.215335845947266</v>
+        <v>4.650991916656494</v>
       </c>
       <c r="F2" t="n">
-        <v>3.781923055648804</v>
+        <v>3.861979484558105</v>
       </c>
       <c r="G2" t="n">
-        <v>3.997435808181763</v>
+        <v>4.123454570770264</v>
       </c>
       <c r="H2" t="n">
-        <v>3.090571403503418</v>
+        <v>2.268695592880249</v>
       </c>
       <c r="I2" t="n">
-        <v>3.228809595108032</v>
+        <v>5.294843673706055</v>
       </c>
       <c r="J2" t="n">
-        <v>3.890583038330078</v>
+        <v>5.798437595367432</v>
       </c>
       <c r="K2" t="n">
-        <v>3.589176177978516</v>
+        <v>4.766546726226807</v>
       </c>
       <c r="L2" t="n">
-        <v>10.30936527252197</v>
+        <v>13.37182235717773</v>
       </c>
       <c r="M2" t="n">
-        <v>6.758226871490479</v>
+        <v>8.673812866210938</v>
       </c>
       <c r="N2" t="n">
-        <v>4.642427444458008</v>
+        <v>3.758753061294556</v>
       </c>
       <c r="O2" t="n">
-        <v>4.732282638549805</v>
+        <v>5.526874542236328</v>
       </c>
       <c r="P2" t="n">
-        <v>3.64415717124939</v>
+        <v>4.855608940124512</v>
       </c>
       <c r="Q2" t="n">
-        <v>23.97982406616211</v>
+        <v>33.1957893371582</v>
       </c>
       <c r="R2" t="n">
-        <v>3.21711254119873</v>
+        <v>4.38038444519043</v>
       </c>
       <c r="S2" t="n">
-        <v>4.57954216003418</v>
+        <v>3.464418172836304</v>
       </c>
       <c r="T2" t="n">
-        <v>3.983235120773315</v>
+        <v>6.843313217163086</v>
       </c>
       <c r="U2" t="n">
-        <v>4.636116504669189</v>
+        <v>4.34760856628418</v>
       </c>
     </row>
     <row r="3">
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9375257527971842</v>
+        <v>0.924473013764336</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9282262803930225</v>
+        <v>0.8898544367726329</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8124107099338571</v>
+        <v>0.8811413257856641</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8363621790889695</v>
+        <v>0.8844529083752445</v>
       </c>
       <c r="F3" t="n">
-        <v>0.921054394199298</v>
+        <v>0.8590057592416547</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9018139758935342</v>
+        <v>0.9147780768104367</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8786639894757952</v>
+        <v>0.7905977818629016</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7960508476410594</v>
+        <v>0.9338908081874251</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8981589949513316</v>
+        <v>0.9395393184075753</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8644619458393367</v>
+        <v>0.9204967585067416</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9629093181519282</v>
+        <v>0.9579572759659184</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8954448467450784</v>
+        <v>0.8979335634185256</v>
       </c>
       <c r="N3" t="n">
-        <v>0.937756170346899</v>
+        <v>0.8342307032343753</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8041562713358713</v>
+        <v>0.8894007728748905</v>
       </c>
       <c r="P3" t="n">
-        <v>0.858371581589238</v>
+        <v>0.8248607592205404</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9682535780103583</v>
+        <v>0.971720498307307</v>
       </c>
       <c r="R3" t="n">
-        <v>0.8479368002481864</v>
+        <v>0.9145980811381078</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9594830545335035</v>
+        <v>0.894949210990559</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9354450518594069</v>
+        <v>0.9416029772975228</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9040263347255374</v>
+        <v>0.9061725967604181</v>
       </c>
     </row>
   </sheetData>

--- a/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
+++ b/deep_seq_batch/with_cell_type_annotation/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_full_speed_coherence.xlsx
@@ -545,19 +545,19 @@
         <v>4.627714157104492</v>
       </c>
       <c r="C2" t="n">
-        <v>3.634689807891846</v>
+        <v>3.634540796279907</v>
       </c>
       <c r="D2" t="n">
-        <v>3.828574419021606</v>
+        <v>3.828552484512329</v>
       </c>
       <c r="E2" t="n">
         <v>4.650991916656494</v>
       </c>
       <c r="F2" t="n">
-        <v>3.861979484558105</v>
+        <v>3.861340284347534</v>
       </c>
       <c r="G2" t="n">
-        <v>4.123454570770264</v>
+        <v>4.123440742492676</v>
       </c>
       <c r="H2" t="n">
         <v>2.268695592880249</v>
@@ -569,34 +569,34 @@
         <v>5.798437595367432</v>
       </c>
       <c r="K2" t="n">
-        <v>4.766546726226807</v>
+        <v>4.766558647155762</v>
       </c>
       <c r="L2" t="n">
         <v>13.37182235717773</v>
       </c>
       <c r="M2" t="n">
-        <v>8.673812866210938</v>
+        <v>8.674136161804199</v>
       </c>
       <c r="N2" t="n">
-        <v>3.758753061294556</v>
+        <v>3.758678197860718</v>
       </c>
       <c r="O2" t="n">
-        <v>5.526874542236328</v>
+        <v>5.527009963989258</v>
       </c>
       <c r="P2" t="n">
-        <v>4.855608940124512</v>
+        <v>4.855121612548828</v>
       </c>
       <c r="Q2" t="n">
-        <v>33.1957893371582</v>
+        <v>33.19571304321289</v>
       </c>
       <c r="R2" t="n">
         <v>4.38038444519043</v>
       </c>
       <c r="S2" t="n">
-        <v>3.464418172836304</v>
+        <v>3.464709043502808</v>
       </c>
       <c r="T2" t="n">
-        <v>6.843313217163086</v>
+        <v>6.842787742614746</v>
       </c>
       <c r="U2" t="n">
         <v>4.34760856628418</v>
@@ -609,64 +609,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.924473013764336</v>
+        <v>0.9244734769775754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8898544367726329</v>
+        <v>0.8898625181567285</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8811413257856641</v>
+        <v>0.8811328961726344</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8844529083752445</v>
+        <v>0.8844534144700351</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8590057592416547</v>
+        <v>0.8589909195285482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9147780768104367</v>
+        <v>0.914802040920391</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7905977818629016</v>
+        <v>0.79059673273477</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9338908081874251</v>
+        <v>0.9338907116092742</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9395393184075753</v>
+        <v>0.9395392216742039</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9204967585067416</v>
+        <v>0.9204963336503783</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9579572759659184</v>
+        <v>0.9579502013530808</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8979335634185256</v>
+        <v>0.8979443618290716</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8342307032343753</v>
+        <v>0.8342173483752253</v>
       </c>
       <c r="O3" t="n">
-        <v>0.8894007728748905</v>
+        <v>0.8894111316898449</v>
       </c>
       <c r="P3" t="n">
-        <v>0.8248607592205404</v>
+        <v>0.8248581220374869</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.971720498307307</v>
+        <v>0.9717222806206323</v>
       </c>
       <c r="R3" t="n">
-        <v>0.9145980811381078</v>
+        <v>0.9145962618864499</v>
       </c>
       <c r="S3" t="n">
-        <v>0.894949210990559</v>
+        <v>0.8949167878519405</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9416029772975228</v>
+        <v>0.9415833567128037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9061725967604181</v>
+        <v>0.9061694007852803</v>
       </c>
     </row>
   </sheetData>
